--- a/trend_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
+++ b/trend_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.807382072798153</v>
+        <v>0.192617927201847</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.903466840729319</v>
+        <v>0.096533159270681</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5939944521821841</v>
+        <v>0.406005547817816</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0006010450291225</v>
+        <v>0.9993989549708771</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.110335680959923</v>
+        <v>6.63820348629383e-07</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.65359477124183</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4</v>
+        <v>4.55</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0522804657636696</v>
+        <v>0.43205186533212</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.154675049738086</v>
+        <v>0.231002463100908</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0077405204143635</v>
+        <v>0.74042521468143</v>
       </c>
       <c r="N30" t="n">
-        <v>-13.0701164409174</v>
+        <v>9.49564539191473</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.306677177977373</v>
+        <v>0.938808427264333</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0855263157894737</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8</v>
+        <v>0.493421052631579</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>108</v>
+        <v>1.89</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.884184884261706</v>
+        <v>0.0380538957091841</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.374133614404901</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2.59588515580332</v>
+        <v>0.0851274571626576</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.818689707649728</v>
+        <v>2.01343363540656</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.231216363225238</v>
+        <v>0.050127071907735</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.839080459770115</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.07</v>
+        <v>10.005</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.500041287235684</v>
+        <v>-0.0224692412850307</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.13410188566538</v>
+        <v>-0.0468913942058316</v>
       </c>
       <c r="M32" t="n">
-        <v>0.394050089047221</v>
+        <v>-0.0006523215024783</v>
       </c>
       <c r="N32" t="n">
-        <v>-8.237912475052459</v>
+        <v>-0.224580122788913</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.036819135060151</v>
+        <v>0.769445781708914</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0282485875706215</v>
       </c>
       <c r="H33" t="n">
+        <v>0.15819209039548</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.424</v>
+        <v>0.014</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0103019230769231</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0288402597728097</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0021877725058598</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.42969883889695</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.042699938643465</v>
+        <v>0.236724989215646</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.967434575733546</v>
+        <v>1.95508880853022</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.70253763470101</v>
+        <v>-2.92719784845849</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.106776957827737</v>
+        <v>8.77571759649009</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.895772755308839</v>
+        <v>0.749076171850659</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.570986171506239</v>
+        <v>0.625251676710525</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.754491017964072</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.29940119760479</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>5.53</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0151277036355269</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.217232200081135</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.317757452659867</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.273557027767213</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3610,7 +3630,1253 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.57504380063479</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.367741935483871</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.109677419354839</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.999340545602503</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.08227848101265819</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.867088607594937</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3306</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0163232963875205</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0234752755392678</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0071684273481418</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-4.93747622127058</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.99995218226051</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0311292613636364</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0185125917703013</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0422632461016287</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.402707132776667</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.999980532698258</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0112994350282486</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.847457627118644</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0171322257519757</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0238275305574541</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0100080942942731</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-4.69376047999333</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.99999996733028</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.689265536723164</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0219729434170503</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0299615759819227</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0143921710142131</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-3.66215723617504</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.749881540868051</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0001155500333722</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0004743506493506</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0001950815328271</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.444423205278057</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.983669646790885</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.858757062146893</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0321151126964515</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0586576893706203</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0069401800603959</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-2.01981840858186</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0522804657636696</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.154675049738086</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0077405204143635</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-13.0701164409174</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.306677177977373</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>108</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.884184884261706</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-9.374133614404901</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.59588515580332</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.818689707649728</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.500041287235684</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-2.13410188566538</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.394050089047221</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-8.237912475052459</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.036819135060151</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0103019230769231</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0288402597728097</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0021877725058598</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-2.42969883889695</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.042699938643465</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>108</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.967434575733546</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.70253763470101</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.106776957827737</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.895772755308839</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0151277036355269</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.217232200081135</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.317757452659867</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.273557027767213</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001780658344511</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>112.215</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1.49030941856511</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.69535227648293</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.878243453833929</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1.32808396254076</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
+++ b/trend_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.008936651116165701</v>
+        <v>0.867145772253974</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H2" t="n">
-        <v>0.826923076923077</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>2.30119508309314</v>
+        <v>-0.681220238095238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.366222095900979</v>
+        <v>-2.40824175824176</v>
       </c>
       <c r="M2" t="n">
-        <v>5.44898104299323</v>
+        <v>0.663894933095838</v>
       </c>
       <c r="N2" t="n">
-        <v>27.8932737344623</v>
+        <v>-6.81220238095238</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,39 +656,39 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.880892960412832</v>
+        <v>0.122488463367171</v>
       </c>
       <c r="G3" t="n">
-        <v>0.196428571428571</v>
+        <v>0.203703703703704</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.537037037037037</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.176644258906829</v>
+        <v>-0.191784108547878</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0.541691760688184</v>
       </c>
       <c r="M3" t="n">
-        <v>0.484767120344299</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7.06577035627315</v>
+        <v>-6.84943244813849</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.192617927201847</v>
+        <v>0.234663468277801</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.915254237288136</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>9.91</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0415434485896266</v>
+        <v>-0.0234134615384616</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.13323185397678</v>
+        <v>-0.118247492415468</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09845667262468941</v>
+        <v>0.0847048868580827</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.41920735206485</v>
+        <v>-0.236260964061167</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0767926354523579</v>
+        <v>0.110211953821255</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.327586206896552</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.014</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0007454081632653</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0016305803571428</v>
+        <v>0.001286301638935</v>
       </c>
       <c r="N5" t="n">
-        <v>5.32434402332362</v>
+        <v>3.56654623571917</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.742505743000126</v>
+        <v>0.861496797215611</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.827586206896552</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>402</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>-13.0446428571429</v>
+        <v>-19.983282674772</v>
       </c>
       <c r="L6" t="n">
-        <v>-89.96353072004329</v>
+        <v>-82.4369885656952</v>
       </c>
       <c r="M6" t="n">
-        <v>24.8548761021804</v>
+        <v>10.0534733442684</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.24493603411514</v>
+        <v>-6.66109422492401</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.15089005483074</v>
+        <v>0.803587984052882</v>
       </c>
       <c r="G7" t="n">
-        <v>0.693877551020408</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.346938775510204</v>
+        <v>0.30188679245283</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>0.005</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.957792817625657</v>
+        <v>0.999986293217567</v>
       </c>
       <c r="G8" t="n">
-        <v>0.379310344827586</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="H8" t="n">
         <v>0.120689655172414</v>
@@ -1134,16 +1134,16 @@
         <v>0.002</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0003648851148851</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.000445293790805</v>
+        <v>-0.000668956043956</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-18.2442557442557</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.253508774251516</v>
+        <v>0.0049366660455963</v>
       </c>
       <c r="G9" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="H9" t="n">
-        <v>0.931034482758621</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.282</v>
+        <v>0.2755</v>
       </c>
       <c r="K9" t="n">
-        <v>0.019743029377356</v>
+        <v>0.0416998528257457</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0129040394463174</v>
+        <v>0.0208305387123548</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0515705979232263</v>
+        <v>0.0727383914111361</v>
       </c>
       <c r="N9" t="n">
-        <v>7.00107424728937</v>
+        <v>15.1360627316681</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.096533159270681</v>
+        <v>0.000622516197039</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.807017543859649</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.92</v>
+        <v>7.875</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0547524538333281</v>
+        <v>-0.112384615384615</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.12001310903179</v>
+        <v>-0.168218480476215</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0149736218850278</v>
+        <v>-0.0512373984503402</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.691318861531921</v>
+        <v>-1.42710622710622</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.253508774251516</v>
+        <v>0.0049366660455963</v>
       </c>
       <c r="G11" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H11" t="n">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3065</v>
+        <v>0.27875</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0214663216248038</v>
+        <v>0.0409199149906697</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0271063769869771</v>
+        <v>0.0206980499894181</v>
       </c>
       <c r="M11" t="n">
-        <v>0.054413527434498</v>
+        <v>0.07190201129469979</v>
       </c>
       <c r="N11" t="n">
-        <v>7.0036938416978</v>
+        <v>14.679790131182</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.797482063333616</v>
+        <v>0.0132888816825081</v>
       </c>
       <c r="G12" t="n">
-        <v>0.448275862068966</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.224137931034483</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.505</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0401373626373627</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.0128845555280415</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.07024038461538459</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>7.94799260145795</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.441232841643137</v>
+        <v>0.338539852306398</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.741379310344828</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.54</v>
+        <v>0.023</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003750874947421</v>
+        <v>0.0003865079365079</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0357502672022054</v>
+        <v>-0.0011852394543812</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0307914902375081</v>
+        <v>0.001656462585034</v>
       </c>
       <c r="N13" t="n">
-        <v>0.69460647174463</v>
+        <v>1.68046928916494</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.18588555265125</v>
+        <v>0.86690383008283</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.603448275862069</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0245</v>
+        <v>1.025</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0009154135338344999</v>
+        <v>-0.0489911926308985</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0008027472527472</v>
+        <v>-0.148114418917654</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0024712036359698</v>
+        <v>0.041992228506555</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7363817707534</v>
+        <v>-4.77962854935595</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.770113676725717</v>
+        <v>0.205137238796567</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.018348623853211</v>
       </c>
       <c r="H15" t="n">
-        <v>0.913793103448276</v>
+        <v>0.6972477064220181</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.043454613801836</v>
+        <v>0.09396141215106731</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.179674332409032</v>
+        <v>-0.0699668506432103</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0625361322451868</v>
+        <v>0.424374786981494</v>
       </c>
       <c r="N15" t="n">
-        <v>-4.02357535202185</v>
+        <v>1.87922824302135</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0255287242591742</v>
+        <v>0.990639259842665</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.10377358490566</v>
       </c>
       <c r="H16" t="n">
-        <v>0.681818181818182</v>
+        <v>0.566037735849057</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="K16" t="n">
-        <v>0.249658236500342</v>
+        <v>0.0974299931860471</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0051805655714916</v>
+        <v>0.0151368915833909</v>
       </c>
       <c r="M16" t="n">
-        <v>0.601566686685828</v>
+        <v>0.182570713619295</v>
       </c>
       <c r="N16" t="n">
-        <v>4.75539498095889</v>
+        <v>4.99640990697678</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.989626171284651</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.102803738317757</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.560747663551402</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.86</v>
+        <v>9.91</v>
       </c>
       <c r="K17" t="n">
-        <v>0.111700352290486</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0157857175875632</v>
+        <v>-0.0313372408186178</v>
       </c>
       <c r="M17" t="n">
-        <v>0.190678526059357</v>
+        <v>0.0442782036590834</v>
       </c>
       <c r="N17" t="n">
-        <v>6.00539528443471</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0353999895823093</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0254237288135593</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.194915254237288</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.406005547817816</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.88135593220339</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>9.93</v>
+        <v>0.013</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.004482746525002</v>
+        <v>0.0002545296167247</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0425105663230603</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0444008053567728</v>
+        <v>0.0005471573320902</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0451434695367777</v>
+        <v>1.95792012865183</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0054611016913414</v>
+        <v>0.82249200936122</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.194915254237288</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.013</v>
+        <v>294</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004276932084309</v>
+        <v>-5.49906691188403</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-11.1724122109738</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0007507708119218</v>
+        <v>3.3243392210863</v>
       </c>
       <c r="N19" t="n">
-        <v>3.28994775716088</v>
+        <v>-1.87043092240953</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.289467083061663</v>
+        <v>0.0241721783494821</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.824074074074074</v>
       </c>
       <c r="H20" t="n">
-        <v>0.771186440677966</v>
+        <v>0.259259259259259</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>280.5</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>2.8897543329952</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-6.40640783065268</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>16.7972720172482</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.03021544848314</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0010269149712489</v>
+        <v>0.9998786213984751</v>
       </c>
       <c r="G21" t="n">
-        <v>0.833333333333333</v>
+        <v>0.347457627118644</v>
       </c>
       <c r="H21" t="n">
-        <v>0.25</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0001410231660231</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0002956292998785</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-7.0511583011583</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2385,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.966816165001725</v>
+        <v>0.0339461827281579</v>
       </c>
       <c r="G22" t="n">
-        <v>0.271186440677966</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H22" t="n">
-        <v>0.135593220338983</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003</v>
+        <v>0.293</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0068478630148477</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0001998840267157</v>
+        <v>0.000459948901721</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0155081095059145</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.33715461257602</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0919418955505341</v>
+        <v>0.898736171549805</v>
       </c>
       <c r="G23" t="n">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.864406779661017</v>
+        <v>0.698275862068966</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2863</v>
+        <v>7.76</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0035198610599926</v>
+        <v>0.0168317972350231</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.94002345041781e-05</v>
+        <v>-0.004060415115383</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0107980505221675</v>
+        <v>0.0361179748081091</v>
       </c>
       <c r="N23" t="n">
-        <v>1.22943103737081</v>
+        <v>0.216904603544112</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9993989549708771</v>
+        <v>0.020864603216162</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7155172413793101</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.75</v>
+        <v>0.31395</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0410265250548481</v>
+        <v>0.0076083347573479</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0210519052882772</v>
+        <v>0.0012988030783514</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0635614630080293</v>
+        <v>0.0148154256973992</v>
       </c>
       <c r="N24" t="n">
-        <v>0.52937451683675</v>
+        <v>2.42342244221943</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0503708190612177</v>
+        <v>0.45786489237359</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.847457627118644</v>
+        <v>0.73728813559322</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3015</v>
+        <v>0.555</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0043786213786213</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002371086336244</v>
+        <v>-0.0059746455834242</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0123170893514382</v>
+        <v>0.0100051504766086</v>
       </c>
       <c r="N25" t="n">
-        <v>1.45227906421936</v>
+        <v>0.0300368830720269</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.820668209016621</v>
+        <v>0.811847658424846</v>
       </c>
       <c r="G26" t="n">
-        <v>0.305084745762712</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.228813559322034</v>
+        <v>0.38135593220339</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.0002443961191033</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0007986516034985</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0002279683378372</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-0.977584476413515</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.583801510003946</v>
+        <v>0.98490826320921</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.754237288135593</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5365</v>
+        <v>1.25</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0008321423342014</v>
+        <v>-0.0520786124794746</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0070312973789085</v>
+        <v>-0.0899496184510766</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0059923111919311</v>
+        <v>-0.0123590261979508</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.155105747288242</v>
+        <v>-4.16628899835796</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.694078972170024</v>
+        <v>5.67926295370071e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0121951219512195</v>
       </c>
       <c r="H28" t="n">
-        <v>0.398305084745763</v>
+        <v>0.6463414634146341</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0255</v>
+        <v>4.175</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0001739285714285</v>
+        <v>0.308245055801952</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0007961431003739</v>
+        <v>0.13461200968112</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0004221861766695</v>
+        <v>0.569672113159031</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.682072829131653</v>
+        <v>7.3831151090288</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.957072351914916</v>
+        <v>0.989581799465367</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="H29" t="n">
-        <v>0.864406779661017</v>
+        <v>0.51006711409396</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.305</v>
+        <v>1.92</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0440733712682191</v>
+        <v>0.0636324041811847</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0759688013136289</v>
+        <v>0.0158092659036409</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0028172380725459</v>
+        <v>0.111300179362413</v>
       </c>
       <c r="N29" t="n">
-        <v>-3.3772698289823</v>
+        <v>3.31418771777003</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6.63820348629383e-07</v>
+        <v>0.287831079278659</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.65359477124183</v>
+        <v>0.835227272727273</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.55</v>
+        <v>9.965</v>
       </c>
       <c r="K30" t="n">
-        <v>0.43205186533212</v>
+        <v>-0.007996715927750499</v>
       </c>
       <c r="L30" t="n">
-        <v>0.231002463100908</v>
+        <v>-0.0293132216930938</v>
       </c>
       <c r="M30" t="n">
-        <v>0.74042521468143</v>
+        <v>0.0151859001486394</v>
       </c>
       <c r="N30" t="n">
-        <v>9.49564539191473</v>
+        <v>-0.08024802737331251</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.938808427264333</v>
+        <v>0.859621420448188</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0855263157894737</v>
+        <v>0.0282485875706215</v>
       </c>
       <c r="H31" t="n">
-        <v>0.493421052631579</v>
+        <v>0.15819209039548</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.89</v>
+        <v>0.014</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0380538957091841</v>
+        <v>-3.34968818782098e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0002737476088205</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0851274571626576</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.01343363540656</v>
+        <v>-0.239263441987213</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.050127071907735</v>
+        <v>0.219052376378286</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.839080459770115</v>
+        <v>0.740112994350282</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.005</v>
+        <v>265</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0224692412850307</v>
+        <v>2.15774451231206</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0468913942058316</v>
+        <v>-2.7784575952342</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0006523215024783</v>
+        <v>8.770522152738801</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.224580122788913</v>
+        <v>0.814243212193232</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,25 +3386,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.769445781708914</v>
+        <v>0.9181574938571579</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0282485875706215</v>
+        <v>0.753012048192771</v>
       </c>
       <c r="H33" t="n">
-        <v>0.15819209039548</v>
+        <v>0.301204819277108</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.236724989215646</v>
+        <v>0.931743492989587</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.401197604790419</v>
       </c>
       <c r="H34" t="n">
-        <v>0.728813559322034</v>
+        <v>0.101796407185629</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>261</v>
+        <v>0.002</v>
       </c>
       <c r="K34" t="n">
-        <v>1.95508880853022</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.92719784845849</v>
+        <v>-8.33523505248745e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>8.77571759649009</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.749076171850659</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.625251676710525</v>
+        <v>0.954562099863377</v>
       </c>
       <c r="G35" t="n">
-        <v>0.754491017964072</v>
+        <v>0.0778443113772455</v>
       </c>
       <c r="H35" t="n">
-        <v>0.29940119760479</v>
+        <v>0.868263473053892</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.314</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0065319413716814</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0147426398817646</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-2.08023610563102</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.57504380063479</v>
+        <v>0.994283701814807</v>
       </c>
       <c r="G36" t="n">
-        <v>0.367741935483871</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.109677419354839</v>
+        <v>0.597701149425287</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0025</v>
+        <v>7.735</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0199293154761904</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0071113159193482</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0319277965521931</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.257651137378027</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.999340545602503</v>
+        <v>0.9978420529122209</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08227848101265819</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H37" t="n">
-        <v>0.867088607594937</v>
+        <v>0.870056497175141</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3306</v>
+        <v>0.37</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0163232963875205</v>
+        <v>-0.0129152596501584</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0234752755392678</v>
+        <v>-0.0208483040638199</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0071684273481418</v>
+        <v>-0.0055528169606718</v>
       </c>
       <c r="N37" t="n">
-        <v>-4.93747622127058</v>
+        <v>-3.49061071625902</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.99995218226051</v>
+        <v>0.999999763438746</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0.6949152542372879</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.6</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7.73</v>
-      </c>
       <c r="K38" t="n">
-        <v>0.0311292613636364</v>
+        <v>-0.021817693585831</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0185125917703013</v>
+        <v>-0.029958988380041</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0422632461016287</v>
+        <v>-0.0132159164001649</v>
       </c>
       <c r="N38" t="n">
-        <v>0.402707132776667</v>
+        <v>-3.63628226430516</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.999980532698258</v>
+        <v>0.988316361262836</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0112994350282486</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.847457627118644</v>
+        <v>0.327683615819209</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.365</v>
+        <v>0.026</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0171322257519757</v>
+        <v>-0.0004472448979591</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0238275305574541</v>
+        <v>-0.0007730158730158</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0100080942942731</v>
+        <v>-0.000104545540997</v>
       </c>
       <c r="N39" t="n">
-        <v>-4.69376047999333</v>
+        <v>-1.7201726844584</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.99999996733028</v>
+        <v>0.999857554086472</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.689265536723164</v>
+        <v>0.853107344632768</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0219729434170503</v>
+        <v>-0.0549424269979832</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0299615759819227</v>
+        <v>-0.0850067947647309</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0143921710142131</v>
+        <v>-0.0273316326530613</v>
       </c>
       <c r="N40" t="n">
-        <v>-3.66215723617504</v>
+        <v>-3.66282846653221</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,14 +4095,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.749881540868051</v>
+        <v>0.726283728397194</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0815217391304348</v>
       </c>
       <c r="H41" t="n">
-        <v>0.333333333333333</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.026</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0001155500333722</v>
+        <v>0.0076846202398485</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0004743506493506</v>
+        <v>-0.0215375244962318</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0001950815328271</v>
+        <v>0.034898217907805</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.444423205278057</v>
+        <v>0.384231011992426</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,11 +4186,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4201,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.983669646790885</v>
+        <v>0.977190778354487</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0234741784037559</v>
       </c>
       <c r="H42" t="n">
-        <v>0.858757062146893</v>
+        <v>0.15962441314554</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.59</v>
+        <v>0.014</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0321151126964515</v>
+        <v>-0.0001434040047114</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0586576893706203</v>
+        <v>-0.0002727781926811</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0069401800603959</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-2.01981840858186</v>
+        <v>-1.02431431936732</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.110335680959923</v>
+        <v>0.8676727828245</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.723004694835681</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4</v>
+        <v>271</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0522804657636696</v>
+        <v>-3.8789825282631</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.154675049738086</v>
+        <v>-8.25158214661502</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0077405204143635</v>
+        <v>1.62875708908519</v>
       </c>
       <c r="N43" t="n">
-        <v>-13.0701164409174</v>
+        <v>-1.43135886651775</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4354,7 +4354,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4364,46 +4368,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.306677177977373</v>
+        <v>0.727971493244599</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.7623762376237621</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8</v>
+        <v>0.277227722772277</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>108</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.884184884261706</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-9.374133614404901</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.59588515580332</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.818689707649728</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4441,7 +4445,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4451,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4466,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.231216363225238</v>
+        <v>0.99999960271508</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0670103092783505</v>
       </c>
       <c r="H45" t="n">
+        <v>0.850515463917526</v>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>6.07</v>
+        <v>0.3765</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.500041287235684</v>
+        <v>-0.0187900303906488</v>
       </c>
       <c r="L45" t="n">
-        <v>-2.13410188566538</v>
+        <v>-0.0242413983766828</v>
       </c>
       <c r="M45" t="n">
-        <v>0.394050089047221</v>
+        <v>-0.0120528489620449</v>
       </c>
       <c r="N45" t="n">
-        <v>-8.237912475052459</v>
+        <v>-4.9907119231471</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4528,7 +4536,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4538,14 +4550,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4553,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.036819135060151</v>
+        <v>0.999999985348328</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.009389671361502301</v>
       </c>
       <c r="H46" t="n">
+        <v>0.863849765258216</v>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
       <c r="J46" t="n">
-        <v>0.424</v>
+        <v>0.396</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0103019230769231</v>
+        <v>-0.0195919540229885</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0288402597728097</v>
+        <v>-0.0244129988020133</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0021877725058598</v>
+        <v>-0.0131734018113244</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.42969883889695</v>
+        <v>-4.94746313711831</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4615,7 +4627,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4625,14 +4641,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4640,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.042699938643465</v>
+        <v>0.992492144306114</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7</v>
+        <v>0.849765258215962</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>108</v>
+        <v>1.44</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.967434575733546</v>
+        <v>-0.025088811630847</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.70253763470101</v>
+        <v>-0.0486297134072608</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.106776957827737</v>
+        <v>-0.0073625433100987</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.895772755308839</v>
+        <v>-1.74227858547549</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4673,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4702,7 +4718,11 @@
           <t>Mana_9b</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4712,11 +4732,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,7 +4747,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.570986171506239</v>
+        <v>0.5</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4739,19 +4759,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.53</v>
+        <v>0.4</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0151277036355269</v>
+        <v>0.0053540721442885</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.217232200081135</v>
+        <v>-0.119690415253267</v>
       </c>
       <c r="M48" t="n">
-        <v>0.317757452659867</v>
+        <v>0.0588762893875123</v>
       </c>
       <c r="N48" t="n">
-        <v>0.273557027767213</v>
+        <v>1.33851803607215</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4803,7 +4823,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4814,31 +4834,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.001780658344511</v>
+        <v>0.84389180582834</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.785714285714286</v>
+        <v>0.8</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>112.215</v>
+        <v>108</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.49030941856511</v>
+        <v>4.59990531062124</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.69535227648293</v>
+        <v>-3.61424747713998</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.878243453833929</v>
+        <v>8.609650075874979</v>
       </c>
       <c r="N49" t="n">
-        <v>-1.32808396254076</v>
+        <v>4.25917158390856</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4867,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4877,6 +4897,615 @@
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.157532300601203</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.0000478274539</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.30422967477286</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.59526030644485</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0070280135823429</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0288402597728097</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.0008576019481496</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.48270328741412</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.463930744672026</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>108</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.994969500387815</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.23785041762746</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8144533152386511</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.161907769304099</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.156029501447033</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.361173571131092</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.80117247930967</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.077314875982908</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.0051001611170784</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.0153781533323772</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0017404832586973</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.09798947622786</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.016347516038542</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>113</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.10953615279673</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-2.32591175722214</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.469974216738384</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.9818904007050679</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mangapapa at Troup Rd</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5435929864079631</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0084282567652611</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.154384147369821</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.170364624254235</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.145565747241125</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1841894</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5530505.3</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mana_9b</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
+++ b/trend_results/Rivers/MangapapaatTroupRd_20f0ca54a2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -148,46 +148,43 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
     <t>Virtually certain increasing</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
+    <t>Extremely unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -575,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,31 +666,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.867145772253974</v>
+        <v>0.977265153300625</v>
       </c>
       <c r="G2">
-        <v>0.0392156862745098</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H2">
-        <v>0.862745098039216</v>
+        <v>0.875</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="K2">
-        <v>-0.681220238095238</v>
+        <v>-1.19192701431222</v>
       </c>
       <c r="L2">
-        <v>-2.40824175824176</v>
+        <v>-3.53349324868709</v>
       </c>
       <c r="M2">
-        <v>0.663894933095838</v>
+        <v>-0.175991791575433</v>
       </c>
       <c r="N2">
-        <v>-6.81220238095238</v>
+        <v>-20.7291654662994</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -708,19 +705,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
         <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,34 +734,34 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>0.122488463367171</v>
+        <v>0.08002867311597189</v>
       </c>
       <c r="G3">
-        <v>0.203703703703704</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.537037037037037</v>
+        <v>0.645833333333333</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="K3">
-        <v>-0.191784108547878</v>
+        <v>-0.250219386505215</v>
       </c>
       <c r="L3">
-        <v>-0.541691760688184</v>
+        <v>-0.486601582745981</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-0.0380504832921131</v>
       </c>
       <c r="N3">
-        <v>-6.84943244813849</v>
+        <v>-10.2130361838863</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -779,19 +776,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -811,13 +808,13 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.234663468277801</v>
+        <v>0.667908339253463</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.898305084745763</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -826,16 +823,16 @@
         <v>9.91</v>
       </c>
       <c r="K4">
-        <v>-0.0234134615384616</v>
+        <v>0.0498127624255442</v>
       </c>
       <c r="L4">
-        <v>-0.118247492415468</v>
+        <v>-0.0823872180451128</v>
       </c>
       <c r="M4">
-        <v>0.0847048868580827</v>
+        <v>0.123466446290432</v>
       </c>
       <c r="N4">
-        <v>-0.236260964061167</v>
+        <v>0.5026514876442399</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -850,19 +847,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,40 +876,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>0.110211953821255</v>
+        <v>0.508066499780113</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.344827586206897</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K5">
-        <v>0.0004993164730006</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0006776437847866</v>
       </c>
       <c r="M5">
-        <v>0.001286301638935</v>
+        <v>0.0006180253937074</v>
       </c>
       <c r="N5">
-        <v>3.56654623571917</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1841894</v>
@@ -921,19 +918,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -953,37 +950,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.861496797215611</v>
+        <v>0.933306775771472</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.862068965517241</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K6">
-        <v>-19.983282674772</v>
+        <v>-32.1849705882353</v>
       </c>
       <c r="L6">
-        <v>-82.4369885656952</v>
+        <v>-99.66217426790929</v>
       </c>
       <c r="M6">
-        <v>10.0534733442684</v>
+        <v>1.91647785541332</v>
       </c>
       <c r="N6">
-        <v>-6.66109422492401</v>
+        <v>-11.0982657200811</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1841894</v>
@@ -992,19 +989,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1024,16 +1021,16 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.803587984052882</v>
+        <v>0.8132511284759329</v>
       </c>
       <c r="G7">
         <v>0.716981132075472</v>
       </c>
       <c r="H7">
-        <v>0.30188679245283</v>
+        <v>0.283018867924528</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1054,7 +1051,7 @@
         <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1841894</v>
@@ -1063,19 +1060,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1095,37 +1092,37 @@
         <v>41</v>
       </c>
       <c r="F8">
-        <v>0.999986293217567</v>
+        <v>0.999989516212471</v>
       </c>
       <c r="G8">
-        <v>0.482758620689655</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="H8">
-        <v>0.120689655172414</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K8">
-        <v>-0.0003648851148851</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.000668956043956</v>
+        <v>-0.0003328009393094</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-18.2442557442557</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1841894</v>
@@ -1134,19 +1131,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1166,37 +1163,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0049366660455963</v>
+        <v>0.168937424369248</v>
       </c>
       <c r="G9">
         <v>0.0344827586206897</v>
       </c>
       <c r="H9">
-        <v>0.982758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.2755</v>
+        <v>0.2885</v>
       </c>
       <c r="K9">
-        <v>0.0416998528257457</v>
+        <v>0.0208071636930485</v>
       </c>
       <c r="L9">
-        <v>0.0208305387123548</v>
+        <v>-0.0114955438672925</v>
       </c>
       <c r="M9">
-        <v>0.0727383914111361</v>
+        <v>0.0577552643824874</v>
       </c>
       <c r="N9">
-        <v>15.1360627316681</v>
+        <v>7.21218845512948</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1841894</v>
@@ -1205,19 +1202,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1237,37 +1234,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.000622516197039</v>
+        <v>0.107534122761639</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.724137931034483</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.875</v>
+        <v>7.76</v>
       </c>
       <c r="K10">
-        <v>-0.112384615384615</v>
+        <v>-0.0361470985155196</v>
       </c>
       <c r="L10">
-        <v>-0.168218480476215</v>
+        <v>-0.108018431165835</v>
       </c>
       <c r="M10">
-        <v>-0.0512373984503402</v>
+        <v>0.0149667505780313</v>
       </c>
       <c r="N10">
-        <v>-1.42710622710622</v>
+        <v>-0.465813125199995</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>1841894</v>
@@ -1276,16 +1273,16 @@
         <v>5530505.3</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,37 +1302,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0049366660455963</v>
+        <v>0.168937424369248</v>
       </c>
       <c r="G11">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.27875</v>
+        <v>0.3105</v>
       </c>
       <c r="K11">
-        <v>0.0409199149906697</v>
+        <v>0.023575845223325</v>
       </c>
       <c r="L11">
-        <v>0.0206980499894181</v>
+        <v>-0.0168934163110163</v>
       </c>
       <c r="M11">
-        <v>0.07190201129469979</v>
+        <v>0.0577460260612224</v>
       </c>
       <c r="N11">
-        <v>14.679790131182</v>
+        <v>7.59286480622385</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>1841894</v>
@@ -1344,19 +1341,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1376,37 +1373,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0132888816825081</v>
+        <v>0.105056163764983</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.775862068965517</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="K12">
-        <v>0.0401373626373627</v>
+        <v>0.0295350404312669</v>
       </c>
       <c r="L12">
-        <v>0.0128845555280415</v>
+        <v>-0.0107087074220278</v>
       </c>
       <c r="M12">
-        <v>0.07024038461538459</v>
+        <v>0.0637147509743532</v>
       </c>
       <c r="N12">
-        <v>7.94799260145795</v>
+        <v>5.73495930704211</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1841894</v>
@@ -1415,19 +1412,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1447,37 +1444,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.338539852306398</v>
+        <v>0.733888468977197</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.5344827586206899</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.023</v>
+        <v>0.0245</v>
       </c>
       <c r="K13">
-        <v>0.0003865079365079</v>
+        <v>-0.000668956043956</v>
       </c>
       <c r="L13">
-        <v>-0.0011852394543812</v>
+        <v>-0.002484425893001</v>
       </c>
       <c r="M13">
-        <v>0.001656462585034</v>
+        <v>0.0008789483138536</v>
       </c>
       <c r="N13">
-        <v>1.68046928916494</v>
+        <v>-2.73043283247365</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1841894</v>
@@ -1486,19 +1483,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1518,7 +1515,7 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.86690383008283</v>
+        <v>0.252346342651449</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1530,25 +1527,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.025</v>
+        <v>0.865</v>
       </c>
       <c r="K14">
-        <v>-0.0489911926308985</v>
+        <v>0.0384649725274725</v>
       </c>
       <c r="L14">
-        <v>-0.148114418917654</v>
+        <v>-0.0523738199649358</v>
       </c>
       <c r="M14">
-        <v>0.041992228506555</v>
+        <v>0.117862899670515</v>
       </c>
       <c r="N14">
-        <v>-4.77962854935595</v>
+        <v>4.44681763323382</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q14">
         <v>1841894</v>
@@ -1557,19 +1554,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1589,13 +1586,13 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.205137238796567</v>
+        <v>0.379420628132105</v>
       </c>
       <c r="G15">
-        <v>0.018348623853211</v>
+        <v>0.019047619047619</v>
       </c>
       <c r="H15">
-        <v>0.6972477064220181</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1604,22 +1601,22 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>0.09396141215106731</v>
+        <v>0.0248469387755102</v>
       </c>
       <c r="L15">
-        <v>-0.0699668506432103</v>
+        <v>-0.12584996254588</v>
       </c>
       <c r="M15">
-        <v>0.424374786981494</v>
+        <v>0.231320894653688</v>
       </c>
       <c r="N15">
-        <v>1.87922824302135</v>
+        <v>0.496938775510203</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>1841894</v>
@@ -1628,19 +1625,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
         <v>61</v>
-      </c>
-      <c r="W15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1660,37 +1657,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.990639259842665</v>
+        <v>0.990050333059469</v>
       </c>
       <c r="G16">
-        <v>0.10377358490566</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="H16">
-        <v>0.566037735849057</v>
+        <v>0.53921568627451</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="K16">
-        <v>0.0974299931860471</v>
+        <v>0.0938463514902364</v>
       </c>
       <c r="L16">
-        <v>0.0151368915833909</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.182570713619295</v>
+        <v>0.187534801708856</v>
       </c>
       <c r="N16">
-        <v>4.99640990697678</v>
+        <v>4.53364016861045</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>1841894</v>
@@ -1699,19 +1696,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1737,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.865546218487395</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.91</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0313372408186178</v>
+        <v>-0.0301012610057751</v>
       </c>
       <c r="M17">
-        <v>0.0442782036590834</v>
+        <v>0.0377316929756036</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1761,7 +1758,7 @@
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>1841894</v>
@@ -1770,19 +1767,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1802,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.0353999895823093</v>
+        <v>0.157870137695947</v>
       </c>
       <c r="G18">
         <v>0.0254237288135593</v>
@@ -1817,22 +1814,22 @@
         <v>0.013</v>
       </c>
       <c r="K18">
-        <v>0.0002545296167247</v>
+        <v>0.0001288359788359</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0005471573320902</v>
+        <v>0.000431227863046</v>
       </c>
       <c r="N18">
-        <v>1.95792012865183</v>
+        <v>0.991045991045992</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q18">
         <v>1841894</v>
@@ -1841,19 +1838,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1873,37 +1870,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.82249200936122</v>
+        <v>0.890621678013555</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.779661016949153</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K19">
-        <v>-5.49906691188403</v>
+        <v>-7.02403846153846</v>
       </c>
       <c r="L19">
-        <v>-11.1724122109738</v>
+        <v>-16.3028038893932</v>
       </c>
       <c r="M19">
-        <v>3.3243392210863</v>
+        <v>1.94339077807967</v>
       </c>
       <c r="N19">
-        <v>-1.87043092240953</v>
+        <v>-2.39728275137831</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1841894</v>
@@ -1912,19 +1909,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1944,13 +1941,13 @@
         <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0241721783494821</v>
+        <v>0.07897918389404571</v>
       </c>
       <c r="G20">
-        <v>0.824074074074074</v>
+        <v>0.794392523364486</v>
       </c>
       <c r="H20">
-        <v>0.259259259259259</v>
+        <v>0.289719626168224</v>
       </c>
       <c r="I20">
         <v>12</v>
@@ -1974,7 +1971,7 @@
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q20">
         <v>1841894</v>
@@ -1983,19 +1980,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2015,13 +2012,13 @@
         <v>41</v>
       </c>
       <c r="F21">
-        <v>0.9998786213984751</v>
+        <v>0.999999394274065</v>
       </c>
       <c r="G21">
-        <v>0.347457627118644</v>
+        <v>0.432203389830508</v>
       </c>
       <c r="H21">
-        <v>0.11864406779661</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2030,22 +2027,22 @@
         <v>0.002</v>
       </c>
       <c r="K21">
-        <v>-0.0001410231660231</v>
+        <v>-0.00019043274244</v>
       </c>
       <c r="L21">
-        <v>-0.0002956292998785</v>
+        <v>-0.0003143287435456</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>-7.0511583011583</v>
+        <v>-9.52163712200209</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1841894</v>
@@ -2054,19 +2051,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2083,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>0.0339461827281579</v>
+        <v>0.395826007997979</v>
       </c>
       <c r="G22">
-        <v>0.0677966101694915</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H22">
         <v>0.889830508474576</v>
@@ -2098,25 +2095,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.293</v>
+        <v>0.336</v>
       </c>
       <c r="K22">
-        <v>0.0068478630148477</v>
+        <v>0.0015619592384242</v>
       </c>
       <c r="L22">
-        <v>0.000459948901721</v>
+        <v>-0.0089983458123944</v>
       </c>
       <c r="M22">
-        <v>0.0155081095059145</v>
+        <v>0.0088450316165652</v>
       </c>
       <c r="N22">
-        <v>2.33715461257602</v>
+        <v>0.464868820959602</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1841894</v>
@@ -2125,19 +2122,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2157,31 +2154,31 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.898736171549805</v>
+        <v>0.856274524642162</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.698275862068966</v>
+        <v>0.68695652173913</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="K23">
-        <v>0.0168317972350231</v>
+        <v>0.0141023166023163</v>
       </c>
       <c r="L23">
-        <v>-0.004060415115383</v>
+        <v>-0.0066251385789639</v>
       </c>
       <c r="M23">
-        <v>0.0361179748081091</v>
+        <v>0.034743262626421</v>
       </c>
       <c r="N23">
-        <v>0.216904603544112</v>
+        <v>0.181496996168807</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
@@ -2196,16 +2193,16 @@
         <v>5530505.3</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2222,40 +2219,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24">
-        <v>0.020864603216162</v>
+        <v>0.395754914194128</v>
       </c>
       <c r="G24">
         <v>0.0169491525423729</v>
       </c>
       <c r="H24">
-        <v>0.872881355932203</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.31395</v>
+        <v>0.344</v>
       </c>
       <c r="K24">
-        <v>0.0076083347573479</v>
+        <v>0.000948790680772</v>
       </c>
       <c r="L24">
-        <v>0.0012988030783514</v>
+        <v>-0.0086565034042413</v>
       </c>
       <c r="M24">
-        <v>0.0148154256973992</v>
+        <v>0.00955340005292</v>
       </c>
       <c r="N24">
-        <v>2.42342244221943</v>
+        <v>0.275811244410473</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q24">
         <v>1841894</v>
@@ -2264,19 +2261,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2296,37 +2293,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.45786489237359</v>
+        <v>0.663946018317622</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.73728813559322</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.555</v>
+        <v>0.59</v>
       </c>
       <c r="K25">
-        <v>0.0001667047010497</v>
+        <v>-0.0031491700338302</v>
       </c>
       <c r="L25">
-        <v>-0.0059746455834242</v>
+        <v>-0.0103133546257757</v>
       </c>
       <c r="M25">
-        <v>0.0100051504766086</v>
+        <v>0.006648851869989</v>
       </c>
       <c r="N25">
-        <v>0.0300368830720269</v>
+        <v>-0.533757632852587</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1841894</v>
@@ -2335,19 +2332,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2367,13 +2364,13 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.811847658424846</v>
+        <v>0.881541873254169</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.38135593220339</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2382,22 +2379,22 @@
         <v>0.025</v>
       </c>
       <c r="K26">
-        <v>-0.0002443961191033</v>
+        <v>-0.0003557629870129</v>
       </c>
       <c r="L26">
-        <v>-0.0007986516034985</v>
+        <v>-0.0008930785001135</v>
       </c>
       <c r="M26">
-        <v>0.0002279683378372</v>
+        <v>0.0001075804873172</v>
       </c>
       <c r="N26">
-        <v>-0.977584476413515</v>
+        <v>-1.42305194805195</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q26">
         <v>1841894</v>
@@ -2406,19 +2403,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2438,37 +2435,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.98490826320921</v>
+        <v>0.882975475892481</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.830508474576271</v>
+        <v>0.8050847457627121</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.25</v>
+        <v>1.215</v>
       </c>
       <c r="K27">
-        <v>-0.0520786124794746</v>
+        <v>-0.0280555902217002</v>
       </c>
       <c r="L27">
-        <v>-0.0899496184510766</v>
+        <v>-0.0724008885850991</v>
       </c>
       <c r="M27">
-        <v>-0.0123590261979508</v>
+        <v>0.0133588237439936</v>
       </c>
       <c r="N27">
-        <v>-4.16628899835796</v>
+        <v>-2.3091020758601</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1841894</v>
@@ -2477,19 +2474,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2509,37 +2506,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>5.67926295370071E-05</v>
+        <v>0.0023804871592007</v>
       </c>
       <c r="G28">
         <v>0.0121951219512195</v>
       </c>
       <c r="H28">
-        <v>0.6463414634146341</v>
+        <v>0.658536585365854</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>4.175</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>0.308245055801952</v>
+        <v>0.144663343348812</v>
       </c>
       <c r="L28">
-        <v>0.13461200968112</v>
+        <v>0.049075890912697</v>
       </c>
       <c r="M28">
-        <v>0.569672113159031</v>
+        <v>0.296377712993948</v>
       </c>
       <c r="N28">
-        <v>7.3831151090288</v>
+        <v>3.61658358372029</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q28">
         <v>1841894</v>
@@ -2548,19 +2545,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
         <v>61</v>
-      </c>
-      <c r="W28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2574,43 +2571,43 @@
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.989581799465367</v>
+        <v>0.990429031918959</v>
       </c>
       <c r="G29">
-        <v>0.08724832214765101</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H29">
-        <v>0.51006711409396</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>1.92</v>
+        <v>1.935</v>
       </c>
       <c r="K29">
-        <v>0.0636324041811847</v>
+        <v>0.044981527093596</v>
       </c>
       <c r="L29">
-        <v>0.0158092659036409</v>
+        <v>0.0088596698167172</v>
       </c>
       <c r="M29">
-        <v>0.111300179362413</v>
+        <v>0.108625477030522</v>
       </c>
       <c r="N29">
-        <v>3.31418771777003</v>
+        <v>2.32462672318326</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q29">
         <v>1841894</v>
@@ -2619,19 +2616,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2651,31 +2648,31 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.287831079278659</v>
+        <v>0.476669481469921</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.835227272727273</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9.965</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K30">
-        <v>-0.007996715927750499</v>
+        <v>-0.0012659709051456</v>
       </c>
       <c r="L30">
-        <v>-0.0293132216930938</v>
+        <v>-0.0203228234008728</v>
       </c>
       <c r="M30">
-        <v>0.0151859001486394</v>
+        <v>0.019991789819376</v>
       </c>
       <c r="N30">
-        <v>-0.08024802737331251</v>
+        <v>-0.0127233256798554</v>
       </c>
       <c r="O30" t="s">
         <v>43</v>
@@ -2690,19 +2687,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,43 +2713,43 @@
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.859621420448188</v>
+        <v>0.643988410880393</v>
       </c>
       <c r="G31">
         <v>0.0282485875706215</v>
       </c>
       <c r="H31">
-        <v>0.15819209039548</v>
+        <v>0.141242937853107</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K31">
-        <v>-3.34968818782098E-05</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.0002737476088205</v>
+        <v>-0.0001624826963197</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>8.86290597367926E-05</v>
       </c>
       <c r="N31">
-        <v>-0.239263441987213</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1841894</v>
@@ -2761,19 +2758,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2793,37 +2790,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.219052376378286</v>
+        <v>0.378387746910846</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.740112994350282</v>
+        <v>0.7784090909090911</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K32">
-        <v>2.15774451231206</v>
+        <v>0.6126980189247619</v>
       </c>
       <c r="L32">
-        <v>-2.7784575952342</v>
+        <v>-4.38471183090757</v>
       </c>
       <c r="M32">
-        <v>8.770522152738801</v>
+        <v>6.98767151917124</v>
       </c>
       <c r="N32">
-        <v>0.814243212193232</v>
+        <v>0.232965026207134</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q32">
         <v>1841894</v>
@@ -2832,19 +2829,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2864,13 +2861,13 @@
         <v>41</v>
       </c>
       <c r="F33">
-        <v>0.9181574938571579</v>
+        <v>0.538310670898829</v>
       </c>
       <c r="G33">
-        <v>0.753012048192771</v>
+        <v>0.775757575757576</v>
       </c>
       <c r="H33">
-        <v>0.301204819277108</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="I33">
         <v>12</v>
@@ -2894,7 +2891,7 @@
         <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1841894</v>
@@ -2903,19 +2900,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2935,13 +2932,13 @@
         <v>41</v>
       </c>
       <c r="F34">
-        <v>0.931743492989587</v>
+        <v>0.989413363827334</v>
       </c>
       <c r="G34">
-        <v>0.401197604790419</v>
+        <v>0.429378531073446</v>
       </c>
       <c r="H34">
-        <v>0.101796407185629</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2953,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>-8.33523505248745E-05</v>
+        <v>-8.63152786067383E-05</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2965,7 +2962,7 @@
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1841894</v>
@@ -2974,19 +2971,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3006,37 +3003,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.954562099863377</v>
+        <v>0.964264088551739</v>
       </c>
       <c r="G35">
-        <v>0.0778443113772455</v>
+        <v>0.07909604519774011</v>
       </c>
       <c r="H35">
-        <v>0.868263473053892</v>
+        <v>0.858757062146893</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.314</v>
+        <v>0.31</v>
       </c>
       <c r="K35">
-        <v>-0.0065319413716814</v>
+        <v>-0.0066914857071776</v>
       </c>
       <c r="L35">
-        <v>-0.0147426398817646</v>
+        <v>-0.01442270306069</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-4.26938305490354E-05</v>
       </c>
       <c r="N35">
-        <v>-2.08023610563102</v>
+        <v>-2.15854377650892</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q35">
         <v>1841894</v>
@@ -3045,19 +3042,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3077,37 +3074,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.994283701814807</v>
+        <v>0.999815063371825</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.597701149425287</v>
+        <v>0.595375722543353</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.735</v>
+        <v>7.74</v>
       </c>
       <c r="K36">
-        <v>0.0199293154761904</v>
+        <v>0.0257781698710148</v>
       </c>
       <c r="L36">
-        <v>0.0071113159193482</v>
+        <v>0.0144104288358384</v>
       </c>
       <c r="M36">
-        <v>0.0319277965521931</v>
+        <v>0.0369227779788505</v>
       </c>
       <c r="N36">
-        <v>0.257651137378027</v>
+        <v>0.333051290323189</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q36">
         <v>1841894</v>
@@ -3116,16 +3113,16 @@
         <v>5530505.3</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3145,7 +3142,7 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.9978420529122209</v>
+        <v>0.947880520433829</v>
       </c>
       <c r="G37">
         <v>0.0112994350282486</v>
@@ -3157,25 +3154,25 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.37</v>
+        <v>0.3515</v>
       </c>
       <c r="K37">
-        <v>-0.0129152596501584</v>
+        <v>-0.007878043602624301</v>
       </c>
       <c r="L37">
-        <v>-0.0208483040638199</v>
+        <v>-0.0157268540686056</v>
       </c>
       <c r="M37">
-        <v>-0.0055528169606718</v>
+        <v>5.51029949751739E-05</v>
       </c>
       <c r="N37">
-        <v>-3.49061071625902</v>
+        <v>-2.24126418282344</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1841894</v>
@@ -3184,19 +3181,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3216,37 +3213,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.999999763438746</v>
+        <v>0.999553870909534</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.6949152542372879</v>
+        <v>0.68361581920904</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="K38">
-        <v>-0.021817693585831</v>
+        <v>-0.0134514562601491</v>
       </c>
       <c r="L38">
-        <v>-0.029958988380041</v>
+        <v>-0.0216732983432103</v>
       </c>
       <c r="M38">
-        <v>-0.0132159164001649</v>
+        <v>-0.0067269470569327</v>
       </c>
       <c r="N38">
-        <v>-3.63628226430516</v>
+        <v>-2.27990784070323</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q38">
         <v>1841894</v>
@@ -3255,19 +3252,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3287,13 +3284,13 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.988316361262836</v>
+        <v>0.950313725449062</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.327683615819209</v>
+        <v>0.31638418079096</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3302,22 +3299,22 @@
         <v>0.026</v>
       </c>
       <c r="K39">
-        <v>-0.0004472448979591</v>
+        <v>-0.0002998768472906</v>
       </c>
       <c r="L39">
-        <v>-0.0007730158730158</v>
+        <v>-0.0006323136260484</v>
       </c>
       <c r="M39">
-        <v>-0.000104545540997</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>-1.7201726844584</v>
+        <v>-1.15337248957938</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q39">
         <v>1841894</v>
@@ -3326,19 +3323,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3358,37 +3355,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.999857554086472</v>
+        <v>0.998439719198755</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.853107344632768</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K40">
-        <v>-0.0549424269979832</v>
+        <v>-0.0400396376051223</v>
       </c>
       <c r="L40">
-        <v>-0.0850067947647309</v>
+        <v>-0.0703537596233173</v>
       </c>
       <c r="M40">
-        <v>-0.0273316326530613</v>
+        <v>-0.0148558026865779</v>
       </c>
       <c r="N40">
-        <v>-3.66282846653221</v>
+        <v>-2.85997411465159</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q40">
         <v>1841894</v>
@@ -3397,19 +3394,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3429,13 +3426,13 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.726283728397194</v>
+        <v>0.759730367351278</v>
       </c>
       <c r="G41">
-        <v>0.0815217391304348</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="H41">
-        <v>0.478260869565217</v>
+        <v>0.478947368421053</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -3444,22 +3441,22 @@
         <v>2</v>
       </c>
       <c r="K41">
-        <v>0.0076846202398485</v>
+        <v>0.0076991989881956</v>
       </c>
       <c r="L41">
-        <v>-0.0215375244962318</v>
+        <v>-0.0175944155576126</v>
       </c>
       <c r="M41">
-        <v>0.034898217907805</v>
+        <v>0.0343156533926327</v>
       </c>
       <c r="N41">
-        <v>0.384231011992426</v>
+        <v>0.384959949409781</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q41">
         <v>1841894</v>
@@ -3468,19 +3465,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3488,7 +3485,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3500,37 +3497,37 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.977190778354487</v>
+        <v>0.038447405698063</v>
       </c>
       <c r="G42">
-        <v>0.0234741784037559</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.15962441314554</v>
+        <v>0.82</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.014</v>
+        <v>10.025</v>
       </c>
       <c r="K42">
-        <v>-0.0001434040047114</v>
+        <v>-0.0200686813186809</v>
       </c>
       <c r="L42">
-        <v>-0.0002727781926811</v>
+        <v>-0.0391971299323167</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>-0.0014295499021526</v>
       </c>
       <c r="N42">
-        <v>-1.02431431936732</v>
+        <v>-0.200186347318513</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q42">
         <v>1841894</v>
@@ -3539,19 +3536,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3559,7 +3556,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3571,37 +3568,37 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.8676727828245</v>
+        <v>0.993549699403685</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H43">
-        <v>0.723004694835681</v>
+        <v>0.151111111111111</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>271</v>
+        <v>0.014</v>
       </c>
       <c r="K43">
-        <v>-3.8789825282631</v>
+        <v>-0.0001600626611413</v>
       </c>
       <c r="L43">
-        <v>-8.25158214661502</v>
+        <v>-0.0002664069581166</v>
       </c>
       <c r="M43">
-        <v>1.62875708908519</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>-1.43135886651775</v>
+        <v>-1.14330472243799</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q43">
         <v>1841894</v>
@@ -3610,19 +3607,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,49 +3627,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.727971493244599</v>
+        <v>0.902305057937279</v>
       </c>
       <c r="G44">
-        <v>0.7623762376237621</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0.277227722772277</v>
+        <v>0.763392857142857</v>
       </c>
       <c r="I44">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>270</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-4.10540845648604</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-8.2920988394344</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.718308557785914</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-1.52052165055039</v>
       </c>
       <c r="O44" t="s">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q44">
         <v>1841894</v>
@@ -3681,16 +3678,16 @@
         <v>5530505.3</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W44" t="s">
         <v>65</v>
@@ -3701,49 +3698,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.99999960271508</v>
+        <v>0.672523030592251</v>
       </c>
       <c r="G45">
-        <v>0.0670103092783505</v>
+        <v>0.76056338028169</v>
       </c>
       <c r="H45">
-        <v>0.850515463917526</v>
+        <v>0.272300469483568</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J45">
-        <v>0.3765</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
-        <v>-0.0187900303906488</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0242413983766828</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>-0.0120528489620449</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>-4.9907119231471</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q45">
         <v>1841894</v>
@@ -3752,19 +3749,19 @@
         <v>5530505.3</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3772,7 +3769,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3784,37 +3781,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.999999985348328</v>
+        <v>0.999999802745429</v>
       </c>
       <c r="G46">
-        <v>0.009389671361502301</v>
+        <v>0.0679611650485437</v>
       </c>
       <c r="H46">
-        <v>0.863849765258216</v>
+        <v>0.839805825242718</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0.396</v>
+        <v>0.3765</v>
       </c>
       <c r="K46">
-        <v>-0.0195919540229885</v>
+        <v>-0.0183071784511109</v>
       </c>
       <c r="L46">
-        <v>-0.0244129988020133</v>
+        <v>-0.02336446834769</v>
       </c>
       <c r="M46">
-        <v>-0.0131734018113244</v>
+        <v>-0.012034530460788</v>
       </c>
       <c r="N46">
-        <v>-4.94746313711831</v>
+        <v>-4.8624643960454</v>
       </c>
       <c r="O46" t="s">
         <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q46">
         <v>1841894</v>
@@ -3823,16 +3820,16 @@
         <v>5530505.3</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W46" t="s">
         <v>64</v>
@@ -3843,49 +3840,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.992492144306114</v>
+        <v>0.999997260383284</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.849765258215962</v>
+        <v>0.5432692307692309</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.44</v>
+        <v>7.715</v>
       </c>
       <c r="K47">
-        <v>-0.025088811630847</v>
+        <v>0.0258358961406345</v>
       </c>
       <c r="L47">
-        <v>-0.0486297134072608</v>
+        <v>0.0169942529093984</v>
       </c>
       <c r="M47">
-        <v>-0.0073625433100987</v>
+        <v>0.0346883246338041</v>
       </c>
       <c r="N47">
-        <v>-1.74227858547549</v>
+        <v>0.334878757493642</v>
       </c>
       <c r="O47" t="s">
         <v>43</v>
       </c>
       <c r="P47" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q47">
         <v>1841894</v>
@@ -3894,19 +3891,16 @@
         <v>5530505.3</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
-      </c>
-      <c r="W47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3914,49 +3908,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>0.999999994130207</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0088888888888888</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0.4</v>
+        <v>0.396</v>
       </c>
       <c r="K48">
-        <v>0.0053540721442885</v>
+        <v>-0.0187583250838696</v>
       </c>
       <c r="L48">
-        <v>-0.119690415253267</v>
+        <v>-0.0235467828103775</v>
       </c>
       <c r="M48">
-        <v>0.0588762893875123</v>
+        <v>-0.0129980393190551</v>
       </c>
       <c r="N48">
-        <v>1.33851803607215</v>
+        <v>-4.73695077875494</v>
       </c>
       <c r="O48" t="s">
         <v>43</v>
       </c>
       <c r="P48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q48">
         <v>1841894</v>
@@ -3965,66 +3959,69 @@
         <v>5530505.3</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.84389180582834</v>
+        <v>0.999999994128595</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.8</v>
+        <v>0.657276995305164</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>108</v>
+        <v>0.61</v>
       </c>
       <c r="K49">
-        <v>4.59990531062124</v>
+        <v>-0.0199408553230209</v>
       </c>
       <c r="L49">
-        <v>-3.61424747713998</v>
+        <v>-0.0253727884132223</v>
       </c>
       <c r="M49">
-        <v>8.609650075874979</v>
+        <v>-0.0133287875646451</v>
       </c>
       <c r="N49">
-        <v>4.25917158390856</v>
+        <v>-3.26899267590507</v>
       </c>
       <c r="O49" t="s">
         <v>43</v>
       </c>
       <c r="P49" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q49">
         <v>1841894</v>
@@ -4033,27 +4030,30 @@
         <v>5530505.3</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>60</v>
+      </c>
+      <c r="W49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4062,37 +4062,37 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.5</v>
+        <v>0.92155626095717</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.286384976525822</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>6.07</v>
+        <v>0.026</v>
       </c>
       <c r="K50">
-        <v>0.157532300601203</v>
+        <v>-0.0001923888480426</v>
       </c>
       <c r="L50">
-        <v>-2.0000478274539</v>
+        <v>-0.0004463459269597</v>
       </c>
       <c r="M50">
-        <v>1.30422967477286</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>2.59526030644485</v>
+        <v>-0.739957107856215</v>
       </c>
       <c r="O50" t="s">
         <v>43</v>
       </c>
       <c r="P50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q50">
         <v>1841894</v>
@@ -4101,66 +4101,69 @@
         <v>5530505.3</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>60</v>
+      </c>
+      <c r="W50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.053702318165127</v>
+        <v>0.988233655404625</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.831111111111111</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.474</v>
+        <v>1.44</v>
       </c>
       <c r="K51">
-        <v>-0.0070280135823429</v>
+        <v>-0.0199931787750822</v>
       </c>
       <c r="L51">
-        <v>-0.0288402597728097</v>
+        <v>-0.0422151277166283</v>
       </c>
       <c r="M51">
-        <v>-0.0008576019481496</v>
+        <v>-0.0056714438398344</v>
       </c>
       <c r="N51">
-        <v>-1.48270328741412</v>
+        <v>-1.38841519271404</v>
       </c>
       <c r="O51" t="s">
         <v>43</v>
       </c>
       <c r="P51" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="Q51">
         <v>1841894</v>
@@ -4169,95 +4172,98 @@
         <v>5530505.3</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>60</v>
+      </c>
+      <c r="W51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.4</v>
+      </c>
+      <c r="K52">
+        <v>0.0566917587104308</v>
+      </c>
+      <c r="L52">
+        <v>0.00173942364017</v>
+      </c>
+      <c r="M52">
+        <v>0.0757292010937656</v>
+      </c>
+      <c r="N52">
+        <v>14.1729396776077</v>
+      </c>
+      <c r="O52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52">
+        <v>1841894</v>
+      </c>
+      <c r="R52">
+        <v>5530505.3</v>
+      </c>
+      <c r="S52" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52">
-        <v>0.463930744672026</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0.7</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>108</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>-0.994969500387815</v>
-      </c>
-      <c r="M52">
-        <v>2.23785041762746</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>43</v>
-      </c>
-      <c r="P52" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q52">
-        <v>1841894</v>
-      </c>
-      <c r="R52">
-        <v>5530505.3</v>
-      </c>
-      <c r="S52" t="s">
-        <v>58</v>
-      </c>
-      <c r="T52" t="s">
-        <v>59</v>
-      </c>
-      <c r="U52" t="s">
-        <v>60</v>
-      </c>
-      <c r="V52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4266,7 +4272,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.8144533152386511</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4278,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5.78</v>
+        <v>108</v>
       </c>
       <c r="K53">
-        <v>0.161907769304099</v>
+        <v>6.80903062044184</v>
       </c>
       <c r="L53">
-        <v>-0.156029501447033</v>
+        <v>0.633639348821179</v>
       </c>
       <c r="M53">
-        <v>0.361173571131092</v>
+        <v>8.664035476682409</v>
       </c>
       <c r="N53">
-        <v>2.80117247930967</v>
+        <v>6.3046579818906</v>
       </c>
       <c r="O53" t="s">
         <v>43</v>
@@ -4305,27 +4311,27 @@
         <v>5530505.3</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4334,7 +4340,7 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.077314875982908</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4346,25 +4352,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.4645</v>
+        <v>6.07</v>
       </c>
       <c r="K54">
-        <v>-0.0051001611170784</v>
+        <v>0.516045436266412</v>
       </c>
       <c r="L54">
-        <v>-0.0153781533323772</v>
+        <v>-0.815563355878518</v>
       </c>
       <c r="M54">
-        <v>0.0017404832586973</v>
+        <v>1.30422967477286</v>
       </c>
       <c r="N54">
-        <v>-1.09798947622786</v>
+        <v>8.501572261390629</v>
       </c>
       <c r="O54" t="s">
         <v>43</v>
       </c>
       <c r="P54" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q54">
         <v>1841894</v>
@@ -4373,27 +4379,27 @@
         <v>5530505.3</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4402,37 +4408,37 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.016347516038542</v>
+        <v>0.5</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>113</v>
+        <v>0.474</v>
       </c>
       <c r="K55">
-        <v>-1.10953615279673</v>
+        <v>-0.0017238938053097</v>
       </c>
       <c r="L55">
-        <v>-2.32591175722214</v>
+        <v>-0.0208591356529074</v>
       </c>
       <c r="M55">
-        <v>-0.469974216738384</v>
+        <v>0.0237464985276863</v>
       </c>
       <c r="N55">
-        <v>-0.9818904007050679</v>
+        <v>-0.363690676225683</v>
       </c>
       <c r="O55" t="s">
         <v>43</v>
       </c>
       <c r="P55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q55">
         <v>1841894</v>
@@ -4441,27 +4447,27 @@
         <v>5530505.3</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4470,55 +4476,327 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.5435929864079631</v>
+        <v>0.816383805979686</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5.79</v>
+        <v>108</v>
       </c>
       <c r="K56">
-        <v>0.0084282567652611</v>
+        <v>1.68732926152138</v>
       </c>
       <c r="L56">
-        <v>-0.154384147369821</v>
+        <v>-0.621211155166111</v>
       </c>
       <c r="M56">
-        <v>0.170364624254235</v>
+        <v>3.68745610651023</v>
       </c>
       <c r="N56">
-        <v>0.145565747241125</v>
+        <v>1.56234190881609</v>
       </c>
       <c r="O56" t="s">
         <v>43</v>
       </c>
       <c r="P56" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q56">
+        <v>1841894</v>
+      </c>
+      <c r="R56">
+        <v>5530505.3</v>
+      </c>
+      <c r="S56" t="s">
+        <v>57</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="V56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.8144533152386511</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>6.055</v>
+      </c>
+      <c r="K57">
+        <v>0.108083055975794</v>
+      </c>
+      <c r="L57">
+        <v>-0.139353804528169</v>
+      </c>
+      <c r="M57">
+        <v>0.337611649888793</v>
+      </c>
+      <c r="N57">
+        <v>1.78502156855152</v>
+      </c>
+      <c r="O57" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q57">
+        <v>1841894</v>
+      </c>
+      <c r="R57">
+        <v>5530505.3</v>
+      </c>
+      <c r="S57" t="s">
+        <v>57</v>
+      </c>
+      <c r="T57" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" t="s">
+        <v>59</v>
+      </c>
+      <c r="V57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.276307562531424</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.487</v>
+      </c>
+      <c r="K58">
+        <v>-0.0035616173503698</v>
+      </c>
+      <c r="L58">
+        <v>-0.0103550688232026</v>
+      </c>
+      <c r="M58">
+        <v>0.0048199610897365</v>
+      </c>
+      <c r="N58">
+        <v>-0.731338264963013</v>
+      </c>
+      <c r="O58" t="s">
+        <v>43</v>
+      </c>
+      <c r="P58" t="s">
         <v>51</v>
       </c>
-      <c r="Q56">
-        <v>1841894</v>
-      </c>
-      <c r="R56">
-        <v>5530505.3</v>
-      </c>
-      <c r="S56" t="s">
-        <v>58</v>
-      </c>
-      <c r="T56" t="s">
-        <v>59</v>
-      </c>
-      <c r="U56" t="s">
-        <v>60</v>
-      </c>
-      <c r="V56" t="s">
-        <v>61</v>
+      <c r="Q58">
+        <v>1841894</v>
+      </c>
+      <c r="R58">
+        <v>5530505.3</v>
+      </c>
+      <c r="S58" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.061808351879491</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>113</v>
+      </c>
+      <c r="K59">
+        <v>-1.01458333333333</v>
+      </c>
+      <c r="L59">
+        <v>-2.02386566427138</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>-0.897861356932153</v>
+      </c>
+      <c r="O59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q59">
+        <v>1841894</v>
+      </c>
+      <c r="R59">
+        <v>5530505.3</v>
+      </c>
+      <c r="S59" t="s">
+        <v>57</v>
+      </c>
+      <c r="T59" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.616737350238214</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>6.04</v>
+      </c>
+      <c r="K60">
+        <v>0.0160761443661971</v>
+      </c>
+      <c r="L60">
+        <v>-0.095452980763738</v>
+      </c>
+      <c r="M60">
+        <v>0.155436849617111</v>
+      </c>
+      <c r="N60">
+        <v>0.266161330566178</v>
+      </c>
+      <c r="O60" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q60">
+        <v>1841894</v>
+      </c>
+      <c r="R60">
+        <v>5530505.3</v>
+      </c>
+      <c r="S60" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" t="s">
+        <v>59</v>
+      </c>
+      <c r="V60" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
